--- a/web/projet.xlsx
+++ b/web/projet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>ref</t>
   </si>
@@ -54,6 +54,240 @@
   </si>
   <si>
     <t>4eme projet</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopq</t>
+  </si>
+  <si>
+    <t>aaaeeeeedsd</t>
+  </si>
+  <si>
+    <t>hfhgsdf</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>projet 2</t>
+  </si>
+  <si>
+    <t>projet 4</t>
+  </si>
+  <si>
+    <t>zzzzzz</t>
+  </si>
+  <si>
+    <t>test 33</t>
+  </si>
+  <si>
+    <t>shajsdashj</t>
+  </si>
+  <si>
+    <t>ajdkajdhkae</t>
+  </si>
+  <si>
+    <t>hhhkjkjhdsa</t>
+  </si>
+  <si>
+    <t>pgg pgpg wjw</t>
+  </si>
+  <si>
+    <t>erwer</t>
+  </si>
+  <si>
+    <t>aaka</t>
+  </si>
+  <si>
+    <t>kfkfk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p p p </t>
+  </si>
+  <si>
+    <t>fmnfj</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>dsffd</t>
+  </si>
+  <si>
+    <t>er prepre</t>
+  </si>
+  <si>
+    <t>gdg54z646z</t>
+  </si>
+  <si>
+    <t>z664</t>
+  </si>
+  <si>
+    <t>ewew</t>
+  </si>
+  <si>
+    <t>weewew</t>
+  </si>
+  <si>
+    <t>prj173663</t>
+  </si>
+  <si>
+    <t>dsadsa</t>
+  </si>
+  <si>
+    <t>pepepe</t>
+  </si>
+  <si>
+    <t>hfjhdsjh</t>
+  </si>
+  <si>
+    <t>edikeie</t>
+  </si>
+  <si>
+    <t>hsdjs</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>a22</t>
   </si>
 </sst>
 </file>
@@ -391,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -458,6 +692,588 @@
       </c>
       <c r="C7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>267363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>136</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>144</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>147</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>167</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>173</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>175</v>
+      </c>
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>177</v>
+      </c>
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>178</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
